--- a/05 UAT Result and Evidence/OPS01-02 Edit Customer, Supplier, Asset.xlsx
+++ b/05 UAT Result and Evidence/OPS01-02 Edit Customer, Supplier, Asset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://365dipostar.sharepoint.com/sites/PJ_NewOPLSystemImplementation/Shared Documents/UAT/05 UAT Result and Evidence/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://365bsi-my.sharepoint.com/personal/bsi90736_bsi_co_id/Documents/iFin-Notes/05 UAT Result and Evidence/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2022" documentId="13_ncr:1_{AD0090A1-15C9-4128-A2CD-9E5B66DB86A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE253A75-380C-494B-8F61-A8875DC5591F}"/>
+  <xr:revisionPtr revIDLastSave="2023" documentId="13_ncr:1_{AD0090A1-15C9-4128-A2CD-9E5B66DB86A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0985131D-9291-4474-AD76-EEC938AC238B}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="2" xr2:uid="{489200D9-8038-4F3F-8D8A-35128F02D1FA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="2" xr2:uid="{489200D9-8038-4F3F-8D8A-35128F02D1FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -1430,6 +1430,13 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1474,6 +1481,13 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1518,6 +1532,13 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1562,6 +1583,13 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1606,6 +1634,13 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1650,6 +1685,13 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2029,14 +2071,14 @@
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="66.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="66.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -3111,15 +3153,15 @@
       <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="19.54296875" customWidth="1"/>
-    <col min="3" max="3" width="21.81640625" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" style="79" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.81640625" customWidth="1"/>
-    <col min="6" max="6" width="42.453125" customWidth="1"/>
-    <col min="7" max="13" width="19.54296875" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="79" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.85546875" customWidth="1"/>
+    <col min="6" max="6" width="42.42578125" customWidth="1"/>
+    <col min="7" max="13" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -3143,7 +3185,7 @@
       <c r="N1" s="38"/>
       <c r="O1" s="38"/>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" ht="30">
       <c r="A2" s="45" t="s">
         <v>91</v>
       </c>
@@ -4333,21 +4375,21 @@
   </sheetPr>
   <dimension ref="A1:CQ769"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A114" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AG132" sqref="AG132"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="15.81640625" style="37" customWidth="1"/>
-    <col min="2" max="95" width="3.453125" style="26" customWidth="1"/>
-    <col min="96" max="16384" width="9.1796875" style="26"/>
+    <col min="1" max="1" width="15.85546875" style="37" customWidth="1"/>
+    <col min="2" max="95" width="3.42578125" style="26" customWidth="1"/>
+    <col min="96" max="16384" width="9.140625" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:95">
+    <row r="1" spans="1:95" ht="15">
       <c r="A1" s="25"/>
     </row>
-    <row r="2" spans="1:95">
+    <row r="2" spans="1:95" ht="15">
       <c r="A2" s="27" t="s">
         <v>105</v>
       </c>
@@ -4399,7 +4441,7 @@
       <c r="AU2" s="95"/>
       <c r="AV2" s="95"/>
     </row>
-    <row r="3" spans="1:95" ht="28">
+    <row r="3" spans="1:95" ht="30">
       <c r="A3" s="27" t="s">
         <v>106</v>
       </c>
@@ -4453,7 +4495,7 @@
       <c r="AU3" s="96"/>
       <c r="AV3" s="96"/>
     </row>
-    <row r="5" spans="1:95">
+    <row r="5" spans="1:95" ht="15">
       <c r="A5" s="27" t="s">
         <v>99</v>
       </c>
@@ -8954,7 +8996,7 @@
       <c r="AV334" s="32"/>
       <c r="CQ334" s="32"/>
     </row>
-    <row r="335" spans="1:95" ht="202" customHeight="1">
+    <row r="335" spans="1:95" ht="201.95" customHeight="1">
       <c r="A335" s="33"/>
       <c r="B335" s="34"/>
       <c r="C335" s="34"/>
@@ -10978,7 +11020,7 @@
       <c r="AV590" s="32"/>
       <c r="CQ590" s="32"/>
     </row>
-    <row r="591" spans="1:95" ht="221.5" customHeight="1">
+    <row r="591" spans="1:95" ht="221.45" customHeight="1">
       <c r="A591" s="33"/>
       <c r="B591" s="34"/>
       <c r="C591" s="34"/>
@@ -12548,15 +12590,15 @@
       <selection activeCell="E5" sqref="E5:E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.1796875" customWidth="1"/>
-    <col min="2" max="2" width="19.54296875" customWidth="1"/>
-    <col min="3" max="3" width="21.81640625" customWidth="1"/>
-    <col min="4" max="4" width="12.54296875" customWidth="1"/>
-    <col min="5" max="5" width="42.81640625" customWidth="1"/>
-    <col min="6" max="6" width="42.453125" customWidth="1"/>
-    <col min="7" max="13" width="19.54296875" customWidth="1"/>
+    <col min="1" max="1" width="35.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="42.85546875" customWidth="1"/>
+    <col min="6" max="6" width="42.42578125" customWidth="1"/>
+    <col min="7" max="13" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -12580,7 +12622,7 @@
       <c r="N1" s="38"/>
       <c r="O1" s="38"/>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" ht="30">
       <c r="A2" s="45" t="s">
         <v>91</v>
       </c>
@@ -12680,7 +12722,7 @@
       <c r="J5" s="38"/>
       <c r="K5" s="38"/>
     </row>
-    <row r="6" spans="1:15" ht="87">
+    <row r="6" spans="1:15" ht="105">
       <c r="A6" s="52"/>
       <c r="B6" s="56"/>
       <c r="C6" s="56"/>
@@ -12710,7 +12752,7 @@
       <c r="J7" s="38"/>
       <c r="K7" s="38"/>
     </row>
-    <row r="8" spans="1:15" ht="87">
+    <row r="8" spans="1:15" ht="105">
       <c r="A8" s="39"/>
       <c r="B8" s="56"/>
       <c r="C8" s="56"/>
@@ -12740,7 +12782,7 @@
       <c r="J9" s="38"/>
       <c r="K9" s="38"/>
     </row>
-    <row r="10" spans="1:15" ht="72.5">
+    <row r="10" spans="1:15" ht="90">
       <c r="A10" s="52"/>
       <c r="B10" s="56"/>
       <c r="C10" s="56"/>
@@ -12770,7 +12812,7 @@
       <c r="J11" s="38"/>
       <c r="K11" s="38"/>
     </row>
-    <row r="12" spans="1:15" ht="130.5">
+    <row r="12" spans="1:15" ht="135">
       <c r="A12" s="39"/>
       <c r="B12" s="40"/>
       <c r="C12" s="40"/>
@@ -12800,7 +12842,7 @@
       <c r="J13" s="38"/>
       <c r="K13" s="38"/>
     </row>
-    <row r="14" spans="1:15" ht="58">
+    <row r="14" spans="1:15" ht="60">
       <c r="A14" s="39"/>
       <c r="B14" s="40"/>
       <c r="C14" s="40"/>
@@ -12830,7 +12872,7 @@
       <c r="J15" s="38"/>
       <c r="K15" s="38"/>
     </row>
-    <row r="16" spans="1:15" ht="72.5">
+    <row r="16" spans="1:15" ht="90">
       <c r="A16" s="39"/>
       <c r="B16" s="40"/>
       <c r="C16" s="40"/>
@@ -12860,7 +12902,7 @@
       <c r="J17" s="38"/>
       <c r="K17" s="38"/>
     </row>
-    <row r="18" spans="1:11" ht="72.5">
+    <row r="18" spans="1:11" ht="90">
       <c r="A18" s="39"/>
       <c r="B18" s="40"/>
       <c r="C18" s="40"/>
@@ -12890,7 +12932,7 @@
       <c r="J19" s="38"/>
       <c r="K19" s="38"/>
     </row>
-    <row r="20" spans="1:11" ht="72.5">
+    <row r="20" spans="1:11" ht="90">
       <c r="A20" s="39"/>
       <c r="B20" s="40"/>
       <c r="C20" s="40"/>
@@ -14322,15 +14364,15 @@
       <selection activeCell="E5" sqref="E5:E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.1796875" customWidth="1"/>
-    <col min="2" max="2" width="19.54296875" customWidth="1"/>
-    <col min="3" max="3" width="21.81640625" customWidth="1"/>
-    <col min="4" max="4" width="12.54296875" customWidth="1"/>
-    <col min="5" max="5" width="42.81640625" customWidth="1"/>
-    <col min="6" max="6" width="42.453125" customWidth="1"/>
-    <col min="7" max="13" width="19.54296875" customWidth="1"/>
+    <col min="1" max="1" width="35.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="42.85546875" customWidth="1"/>
+    <col min="6" max="6" width="42.42578125" customWidth="1"/>
+    <col min="7" max="13" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -14354,7 +14396,7 @@
       <c r="N1" s="38"/>
       <c r="O1" s="38"/>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" ht="30">
       <c r="A2" s="45" t="s">
         <v>91</v>
       </c>
@@ -14454,7 +14496,7 @@
       <c r="J5" s="38"/>
       <c r="K5" s="38"/>
     </row>
-    <row r="6" spans="1:15" ht="101.5">
+    <row r="6" spans="1:15" ht="120">
       <c r="A6" s="39"/>
       <c r="B6" s="39"/>
       <c r="C6" s="39"/>
@@ -14492,7 +14534,7 @@
       <c r="N7" s="38"/>
       <c r="O7" s="38"/>
     </row>
-    <row r="8" spans="1:15" ht="101.5">
+    <row r="8" spans="1:15" ht="120">
       <c r="A8" s="39"/>
       <c r="B8" s="39"/>
       <c r="C8" s="39"/>
@@ -14530,7 +14572,7 @@
       <c r="N9" s="38"/>
       <c r="O9" s="38"/>
     </row>
-    <row r="10" spans="1:15" ht="101.5">
+    <row r="10" spans="1:15" ht="120">
       <c r="A10" s="39"/>
       <c r="B10" s="39"/>
       <c r="C10" s="39"/>
@@ -14568,7 +14610,7 @@
       <c r="N11" s="38"/>
       <c r="O11" s="38"/>
     </row>
-    <row r="12" spans="1:15" ht="101.5">
+    <row r="12" spans="1:15" ht="120">
       <c r="A12" s="39"/>
       <c r="B12" s="39"/>
       <c r="C12" s="39"/>
@@ -14606,7 +14648,7 @@
       <c r="N13" s="38"/>
       <c r="O13" s="38"/>
     </row>
-    <row r="14" spans="1:15" ht="101.5">
+    <row r="14" spans="1:15" ht="120">
       <c r="A14" s="54"/>
       <c r="B14" s="54"/>
       <c r="C14" s="54"/>
@@ -14632,7 +14674,7 @@
       <c r="H15" s="54"/>
       <c r="I15" s="54"/>
     </row>
-    <row r="16" spans="1:15" ht="101.5">
+    <row r="16" spans="1:15" ht="120">
       <c r="A16" s="54"/>
       <c r="B16" s="54"/>
       <c r="C16" s="54"/>
@@ -14658,7 +14700,7 @@
       <c r="H17" s="54"/>
       <c r="I17" s="54"/>
     </row>
-    <row r="18" spans="1:9" ht="101.5">
+    <row r="18" spans="1:9" ht="120">
       <c r="A18" s="54"/>
       <c r="B18" s="54"/>
       <c r="C18" s="54"/>
@@ -14684,7 +14726,7 @@
       <c r="H19" s="54"/>
       <c r="I19" s="54"/>
     </row>
-    <row r="20" spans="1:9" ht="101.5">
+    <row r="20" spans="1:9" ht="120">
       <c r="A20" s="54"/>
       <c r="B20" s="54"/>
       <c r="C20" s="54"/>
@@ -14710,7 +14752,7 @@
       <c r="H21" s="54"/>
       <c r="I21" s="54"/>
     </row>
-    <row r="22" spans="1:9" ht="101.5">
+    <row r="22" spans="1:9" ht="120">
       <c r="A22" s="54"/>
       <c r="B22" s="54"/>
       <c r="C22" s="54"/>
@@ -14736,7 +14778,7 @@
       <c r="H23" s="54"/>
       <c r="I23" s="54"/>
     </row>
-    <row r="24" spans="1:9" ht="72.5">
+    <row r="24" spans="1:9" ht="90">
       <c r="A24" s="54"/>
       <c r="B24" s="54"/>
       <c r="C24" s="54"/>
@@ -14762,7 +14804,7 @@
       <c r="H25" s="54"/>
       <c r="I25" s="54"/>
     </row>
-    <row r="26" spans="1:9" ht="72.5">
+    <row r="26" spans="1:9" ht="90">
       <c r="A26" s="54"/>
       <c r="B26" s="54"/>
       <c r="C26" s="54"/>
@@ -14788,7 +14830,7 @@
       <c r="H27" s="54"/>
       <c r="I27" s="54"/>
     </row>
-    <row r="28" spans="1:9" ht="72.5">
+    <row r="28" spans="1:9" ht="90">
       <c r="A28" s="54"/>
       <c r="B28" s="54"/>
       <c r="C28" s="54"/>
@@ -14814,7 +14856,7 @@
       <c r="H29" s="54"/>
       <c r="I29" s="54"/>
     </row>
-    <row r="30" spans="1:9" ht="72.5">
+    <row r="30" spans="1:9" ht="90">
       <c r="A30" s="54"/>
       <c r="B30" s="54"/>
       <c r="C30" s="54"/>
@@ -14840,7 +14882,7 @@
       <c r="H31" s="54"/>
       <c r="I31" s="54"/>
     </row>
-    <row r="32" spans="1:9" ht="72.5">
+    <row r="32" spans="1:9" ht="90">
       <c r="A32" s="54"/>
       <c r="B32" s="54"/>
       <c r="C32" s="54"/>
@@ -15149,15 +15191,15 @@
       <selection activeCell="E5" sqref="E5:E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.1796875" customWidth="1"/>
-    <col min="2" max="2" width="19.54296875" customWidth="1"/>
-    <col min="3" max="3" width="21.81640625" customWidth="1"/>
-    <col min="4" max="4" width="12.54296875" customWidth="1"/>
-    <col min="5" max="5" width="42.81640625" customWidth="1"/>
-    <col min="6" max="6" width="42.453125" customWidth="1"/>
-    <col min="7" max="13" width="19.54296875" customWidth="1"/>
+    <col min="1" max="1" width="35.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="42.85546875" customWidth="1"/>
+    <col min="6" max="6" width="42.42578125" customWidth="1"/>
+    <col min="7" max="13" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -15181,7 +15223,7 @@
       <c r="N1" s="38"/>
       <c r="O1" s="38"/>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" ht="30">
       <c r="A2" s="45" t="s">
         <v>91</v>
       </c>
@@ -15281,7 +15323,7 @@
       <c r="J5" s="38"/>
       <c r="K5" s="38"/>
     </row>
-    <row r="6" spans="1:15" ht="101.5">
+    <row r="6" spans="1:15" ht="120">
       <c r="A6" s="39"/>
       <c r="B6" s="39"/>
       <c r="C6" s="39"/>
@@ -15319,7 +15361,7 @@
       <c r="N7" s="38"/>
       <c r="O7" s="38"/>
     </row>
-    <row r="8" spans="1:15" ht="101.5">
+    <row r="8" spans="1:15" ht="120">
       <c r="A8" s="39"/>
       <c r="B8" s="39"/>
       <c r="C8" s="39"/>
@@ -15357,7 +15399,7 @@
       <c r="N9" s="38"/>
       <c r="O9" s="38"/>
     </row>
-    <row r="10" spans="1:15" ht="101.5">
+    <row r="10" spans="1:15" ht="120">
       <c r="A10" s="39"/>
       <c r="B10" s="39"/>
       <c r="C10" s="39"/>
@@ -15395,7 +15437,7 @@
       <c r="N11" s="38"/>
       <c r="O11" s="38"/>
     </row>
-    <row r="12" spans="1:15" ht="101.5">
+    <row r="12" spans="1:15" ht="120">
       <c r="A12" s="39"/>
       <c r="B12" s="39"/>
       <c r="C12" s="39"/>
@@ -15433,7 +15475,7 @@
       <c r="N13" s="38"/>
       <c r="O13" s="38"/>
     </row>
-    <row r="14" spans="1:15" ht="116">
+    <row r="14" spans="1:15" ht="120">
       <c r="A14" s="39"/>
       <c r="B14" s="39"/>
       <c r="C14" s="39"/>
@@ -15471,7 +15513,7 @@
       <c r="N15" s="38"/>
       <c r="O15" s="38"/>
     </row>
-    <row r="16" spans="1:15" ht="101.5">
+    <row r="16" spans="1:15" ht="105">
       <c r="A16" s="39"/>
       <c r="B16" s="39"/>
       <c r="C16" s="39"/>
@@ -16041,19 +16083,19 @@
       <selection activeCell="E7" sqref="E7:F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="15.81640625" style="37" customWidth="1"/>
-    <col min="2" max="49" width="3.453125" style="26" customWidth="1"/>
-    <col min="50" max="50" width="52.7265625" style="26" customWidth="1"/>
-    <col min="51" max="95" width="3.453125" style="26" customWidth="1"/>
-    <col min="96" max="16384" width="9.1796875" style="26"/>
+    <col min="1" max="1" width="15.85546875" style="37" customWidth="1"/>
+    <col min="2" max="49" width="3.42578125" style="26" customWidth="1"/>
+    <col min="50" max="50" width="52.7109375" style="26" customWidth="1"/>
+    <col min="51" max="95" width="3.42578125" style="26" customWidth="1"/>
+    <col min="96" max="16384" width="9.140625" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:95">
+    <row r="1" spans="1:95" ht="15">
       <c r="A1" s="25"/>
     </row>
-    <row r="2" spans="1:95">
+    <row r="2" spans="1:95" ht="15">
       <c r="A2" s="27" t="s">
         <v>105</v>
       </c>
@@ -16107,7 +16149,7 @@
       <c r="AU2" s="95"/>
       <c r="AV2" s="95"/>
     </row>
-    <row r="3" spans="1:95" ht="55" customHeight="1">
+    <row r="3" spans="1:95" ht="54.95" customHeight="1">
       <c r="A3" s="27" t="s">
         <v>106</v>
       </c>
@@ -16161,7 +16203,7 @@
       <c r="AU3" s="96"/>
       <c r="AV3" s="96"/>
     </row>
-    <row r="5" spans="1:95">
+    <row r="5" spans="1:95" ht="15">
       <c r="A5" s="27" t="s">
         <v>99</v>
       </c>
@@ -17693,7 +17735,7 @@
       <c r="AV160" s="32"/>
       <c r="CQ160" s="32"/>
     </row>
-    <row r="161" spans="1:95" ht="14.5">
+    <row r="161" spans="1:95" ht="15">
       <c r="A161" s="31"/>
       <c r="F161" s="56"/>
       <c r="AV161" s="32"/>
@@ -18666,7 +18708,7 @@
       <c r="CP280" s="29"/>
       <c r="CQ280" s="30"/>
     </row>
-    <row r="281" spans="1:95" ht="14.5">
+    <row r="281" spans="1:95" ht="15">
       <c r="A281" s="31"/>
       <c r="K281"/>
       <c r="AV281" s="32"/>
@@ -19108,7 +19150,7 @@
       <c r="AV331" s="32"/>
       <c r="CQ331" s="32"/>
     </row>
-    <row r="332" spans="1:95" ht="14.5">
+    <row r="332" spans="1:95" ht="15">
       <c r="A332" s="31"/>
       <c r="O332"/>
       <c r="AV332" s="32"/>
@@ -19184,7 +19226,7 @@
       <c r="AV346" s="32"/>
       <c r="CQ346" s="32"/>
     </row>
-    <row r="347" spans="1:95" ht="179.15" customHeight="1">
+    <row r="347" spans="1:95" ht="179.1" customHeight="1">
       <c r="A347" s="33"/>
       <c r="B347" s="34"/>
       <c r="C347" s="34"/>
@@ -24631,6 +24673,54 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="082b249c-3e96-4a7c-9ff2-21fd1dcff023">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="a73fd218-8bca-4422-add3-bf5da46cbfd8" xsi:nil="true"/>
+    <SharedWithUsers xmlns="a73fd218-8bca-4422-add3-bf5da46cbfd8">
+      <UserInfo>
+        <DisplayName>Richardus Bayu</DisplayName>
+        <AccountId>23</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Wawan Hermawan</DisplayName>
+        <AccountId>15</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Andriani Kartiningrum</DisplayName>
+        <AccountId>12</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Muhamad Ridzky Alfiansyah</DisplayName>
+        <AccountId>25</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Khairina Dwi Saktia</DisplayName>
+        <AccountId>467</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Sony Nugraha</DisplayName>
+        <AccountId>9</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Natalia</DisplayName>
+        <AccountId>71</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CC48E16567E1D34D8B0907037ED2122D" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7198d6e6b33a4d5f691aef6e919d14c0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="082b249c-3e96-4a7c-9ff2-21fd1dcff023" xmlns:ns3="a73fd218-8bca-4422-add3-bf5da46cbfd8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="70608b7b522b88a2cf49d229e5d3aa78" ns2:_="" ns3:_="">
     <xsd:import namespace="082b249c-3e96-4a7c-9ff2-21fd1dcff023"/>
@@ -24853,54 +24943,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="082b249c-3e96-4a7c-9ff2-21fd1dcff023">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="a73fd218-8bca-4422-add3-bf5da46cbfd8" xsi:nil="true"/>
-    <SharedWithUsers xmlns="a73fd218-8bca-4422-add3-bf5da46cbfd8">
-      <UserInfo>
-        <DisplayName>Richardus Bayu</DisplayName>
-        <AccountId>23</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Wawan Hermawan</DisplayName>
-        <AccountId>15</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Andriani Kartiningrum</DisplayName>
-        <AccountId>12</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Muhamad Ridzky Alfiansyah</DisplayName>
-        <AccountId>25</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Khairina Dwi Saktia</DisplayName>
-        <AccountId>467</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Sony Nugraha</DisplayName>
-        <AccountId>9</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Natalia</DisplayName>
-        <AccountId>71</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9B2E120-0C31-4CAA-BE47-EB1E8A770F3F}">
   <ds:schemaRefs>
@@ -24910,6 +24952,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A24E3265-BC96-4F3A-999A-3F508F7A552D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="a73fd218-8bca-4422-add3-bf5da46cbfd8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="082b249c-3e96-4a7c-9ff2-21fd1dcff023"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13457B60-87C9-463D-9B66-3401FC4E2864}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -24926,21 +24985,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A24E3265-BC96-4F3A-999A-3F508F7A552D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="a73fd218-8bca-4422-add3-bf5da46cbfd8"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="082b249c-3e96-4a7c-9ff2-21fd1dcff023"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>